--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -173,7 +173,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,18 +224,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2F2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBFEEB"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -259,47 +265,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFEBEBEB"/>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </left>
-      <right style="medium">
-        <color rgb="FFEBEBEB"/>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color rgb="FFEBEBEB"/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF8000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFEBEBEB"/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -307,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,25 +322,22 @@
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -375,6 +348,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEEDD"/>
+      <color rgb="FFFFCC99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
@@ -656,7 +631,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,8 +649,8 @@
     <row r="1" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:12" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,27 +663,27 @@
       <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -724,10 +699,10 @@
       <c r="J6" s="16">
         <v>7</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -750,21 +725,21 @@
       <c r="J7" s="16">
         <v>14</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <v>16</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="18">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="2"/>
@@ -780,21 +755,21 @@
       <c r="J8" s="16">
         <v>20</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="18">
         <v>17</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="18">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="14">
         <v>1</v>
       </c>
       <c r="D9" s="2"/>
@@ -810,14 +785,14 @@
       <c r="J9" s="16">
         <v>27</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="18">
         <v>18</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="18">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -840,21 +815,21 @@
       <c r="J10" s="16">
         <v>34</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="18">
         <v>19</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="18">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="11">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
@@ -864,20 +839,20 @@
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>6</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="16">
         <v>40</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="18">
         <v>20</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="18">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -894,10 +869,10 @@
       <c r="F12" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>7</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>43</v>
       </c>
       <c r="K12" s="19">
@@ -907,7 +882,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -924,10 +899,10 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <v>8</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>46</v>
       </c>
       <c r="K13" s="19">
@@ -937,7 +912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -954,10 +929,10 @@
       <c r="F14" s="2">
         <v>8</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <v>9</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="18">
         <v>48</v>
       </c>
       <c r="K14" s="19">
@@ -967,14 +942,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>1</v>
       </c>
       <c r="D15" s="2"/>
@@ -984,10 +959,10 @@
       <c r="F15" s="2">
         <v>4</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="18">
         <v>10</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="18">
         <v>51</v>
       </c>
       <c r="K15" s="19">
@@ -997,7 +972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1014,10 +989,10 @@
       <c r="F16" s="2">
         <v>8</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <v>11</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="18">
         <v>54</v>
       </c>
       <c r="K16" s="19">
@@ -1027,7 +1002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1044,10 +1019,10 @@
       <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <v>12</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="18">
         <v>56</v>
       </c>
       <c r="K17" s="19">
@@ -1057,7 +1032,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1074,10 +1049,10 @@
       <c r="F18" s="2">
         <v>8</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="18">
         <v>13</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="18">
         <v>59</v>
       </c>
       <c r="K18" s="19">
@@ -1087,7 +1062,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1104,10 +1079,10 @@
       <c r="F19" s="2">
         <v>8</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <v>14</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="18">
         <v>62</v>
       </c>
       <c r="K19" s="19">
@@ -1117,7 +1092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1134,10 +1109,10 @@
       <c r="F20" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>15</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="18">
         <v>64</v>
       </c>
       <c r="K20" s="19">
@@ -1208,7 +1183,7 @@
       <c r="B24" s="11">
         <v>19</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="14">
         <v>1</v>
       </c>
       <c r="D24" s="2"/>
@@ -1262,7 +1237,7 @@
       <c r="B27" s="11">
         <v>22</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="14">
         <v>1</v>
       </c>
       <c r="D27" s="2"/>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -173,7 +173,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,6 +240,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -283,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +344,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,7 +640,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +697,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F6" s="2">
         <v>8</v>
@@ -714,7 +723,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>8</v>
@@ -744,7 +753,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
@@ -774,7 +783,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -804,7 +813,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>6</v>
@@ -834,7 +843,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
@@ -864,7 +873,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>6</v>
@@ -894,7 +903,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>5</v>
@@ -924,7 +933,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <v>8</v>
@@ -954,7 +963,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <v>4</v>
@@ -984,7 +993,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>8</v>
@@ -1014,15 +1023,15 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>5</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="20">
         <v>12</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="20">
         <v>56</v>
       </c>
       <c r="K17" s="19">
@@ -1044,7 +1053,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <v>8</v>
@@ -1074,7 +1083,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
         <v>8</v>
@@ -1104,7 +1113,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <v>10</v>
@@ -1134,7 +1143,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
         <v>3</v>
@@ -1152,7 +1161,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <v>6</v>
@@ -1170,7 +1179,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
         <v>8</v>
@@ -1188,7 +1197,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <v>6</v>
@@ -1201,12 +1210,12 @@
       <c r="B25" s="11">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="14">
         <v>1</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>10</v>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
         <v>20</v>
@@ -1242,7 +1251,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>5</v>
@@ -1260,7 +1269,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>4</v>
@@ -1278,7 +1287,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="12">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
         <v>8</v>
@@ -1314,7 +1323,7 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
         <v>25</v>
@@ -1332,7 +1341,7 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
         <v>30</v>
@@ -1346,7 +1355,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="13">
         <f>SUM(E6:E32)</f>
-        <v>21.000000000000007</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="F34" s="9">
         <f>SUM(F6:F32)</f>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,7 @@
       <c r="B23" s="11">
         <v>18</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="14">
         <v>1</v>
       </c>
       <c r="D23" s="6"/>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE74000-BCC7-4B53-A589-4A5480DBF097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -353,7 +354,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -636,17 +648,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.5703125" style="1" customWidth="1"/>
@@ -1367,6 +1379,11 @@
       <c r="J34" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E6:E32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algop\Documents\GitHub\ege-25\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="990" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,135 +26,119 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
-    <t xml:space="preserve">вес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">слож-
+    <t>вес</t>
+  </si>
+  <si>
+    <t>слож-
 ность</t>
   </si>
   <si>
-    <t xml:space="preserve">вероят-
+    <t>вероят-
 ность</t>
   </si>
   <si>
-    <t xml:space="preserve">время
+    <t>время
 мин</t>
   </si>
   <si>
-    <t xml:space="preserve">Первичный балл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тестовый балл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">граф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">таблица истинности</t>
-  </si>
-  <si>
-    <t xml:space="preserve">база данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">условие Фано</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СС - преобразование числа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черепаха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">объём файла 7-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СС - количество чисел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">таблица - обработка данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">текстовый редактор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">обработка строки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip-адрес</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СС - количество нулей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отрезки, неравенства, логика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">рекурсия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">числа из файла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">путь в лабиринте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">игра - 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">игра - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">игра - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">процессы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кол-во траекторий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">длинная строка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">числа или маска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">жадный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">оптимизация или кластеры</t>
+    <t>Первичный балл</t>
+  </si>
+  <si>
+    <t>Тестовый балл</t>
+  </si>
+  <si>
+    <t>граф</t>
+  </si>
+  <si>
+    <t>таблица истинности</t>
+  </si>
+  <si>
+    <t>база данных</t>
+  </si>
+  <si>
+    <t>условие Фано</t>
+  </si>
+  <si>
+    <t>СС - преобразование числа</t>
+  </si>
+  <si>
+    <t>Черепаха</t>
+  </si>
+  <si>
+    <t>объём файла 7-11</t>
+  </si>
+  <si>
+    <t>СС - количество чисел</t>
+  </si>
+  <si>
+    <t>таблица - обработка данных</t>
+  </si>
+  <si>
+    <t>текстовый редактор</t>
+  </si>
+  <si>
+    <t>обработка строки</t>
+  </si>
+  <si>
+    <t>ip-адрес</t>
+  </si>
+  <si>
+    <t>СС - количество нулей</t>
+  </si>
+  <si>
+    <t>отрезки, неравенства, логика</t>
+  </si>
+  <si>
+    <t>рекурсия</t>
+  </si>
+  <si>
+    <t>числа из файла</t>
+  </si>
+  <si>
+    <t>путь в лабиринте</t>
+  </si>
+  <si>
+    <t>игра - 2</t>
+  </si>
+  <si>
+    <t>игра - 3</t>
+  </si>
+  <si>
+    <t>игра - 4</t>
+  </si>
+  <si>
+    <t>процессы</t>
+  </si>
+  <si>
+    <t>кол-во траекторий</t>
+  </si>
+  <si>
+    <t>длинная строка</t>
+  </si>
+  <si>
+    <t>числа или маска</t>
+  </si>
+  <si>
+    <t>жадный</t>
+  </si>
+  <si>
+    <t>оптимизация или кластеры</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -160,7 +148,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,7 +170,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -211,25 +199,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999"/>
+        <fgColor theme="9" tint="0.59987182226020086"/>
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999"/>
+        <fgColor theme="5" tint="0.59987182226020086"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
@@ -241,178 +229,134 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999"/>
+        <fgColor theme="5" tint="0.39988402966399123"/>
         <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color theme="2" tint="-0.5"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-0.5"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.5"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.5"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -426,6 +370,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -484,60 +429,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -569,7 +530,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -593,7 +554,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -653,42 +614,41 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24:C26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="12"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="4.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,680 +674,680 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="n">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="E6" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="7">
         <v>8</v>
       </c>
-      <c r="I6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="n">
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
         <v>7</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <v>8</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="9">
         <v>2</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="9">
         <v>14</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="11">
         <v>16</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="11">
         <v>67</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="E8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="7">
         <v>8</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="9">
         <v>3</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="9">
         <v>20</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="11">
         <v>17</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="11">
         <v>70</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="7">
         <v>4</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="9">
         <v>4</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>27</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K9" s="11">
         <v>18</v>
       </c>
-      <c r="L9" s="11" t="n">
+      <c r="L9" s="11">
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="9">
         <v>5</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="9">
         <v>34</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="11">
         <v>19</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="E11" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="9">
         <v>6</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="9">
         <v>40</v>
       </c>
-      <c r="K11" s="11" t="n">
+      <c r="K11" s="11">
         <v>20</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="n">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
         <v>6</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="9">
         <v>7</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="9">
         <v>43</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="13">
         <v>21</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="n">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
         <v>5</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="11">
         <v>8</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="11">
         <v>46</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="13">
         <v>22</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="13">
         <v>83</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
         <v>8</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="11">
         <v>9</v>
       </c>
-      <c r="J14" s="11" t="n">
+      <c r="J14" s="11">
         <v>48</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="13">
         <v>23</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="13">
         <v>85</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>0.9</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="7">
         <v>4</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="11">
         <v>10</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J15" s="11">
         <v>51</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="13">
         <v>24</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="13">
         <v>88</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="n">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
         <v>8</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="11">
         <v>11</v>
       </c>
-      <c r="J16" s="11" t="n">
+      <c r="J16" s="11">
         <v>54</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="13">
         <v>25</v>
       </c>
-      <c r="L16" s="13" t="n">
+      <c r="L16" s="13">
         <v>90</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="14" t="n">
+      <c r="I17" s="14">
         <v>12</v>
       </c>
-      <c r="J17" s="14" t="n">
+      <c r="J17" s="14">
         <v>56</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="13">
         <v>26</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="13">
         <v>93</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="n">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
         <v>8</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="11">
         <v>13</v>
       </c>
-      <c r="J18" s="11" t="n">
+      <c r="J18" s="11">
         <v>59</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="13">
         <v>27</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="L18" s="13">
         <v>95</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="n">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>8</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="11">
         <v>14</v>
       </c>
-      <c r="J19" s="11" t="n">
+      <c r="J19" s="11">
         <v>62</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="13">
         <v>28</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="13">
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="n">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
         <v>10</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="11">
         <v>15</v>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="J20" s="11">
         <v>64</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="13">
         <v>29</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="n">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="n">
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="5">
         <v>18</v>
       </c>
-      <c r="C23" s="6" t="n">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="n">
+      <c r="E23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>19</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="n">
+      <c r="E24" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="5">
         <v>20</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="n">
+      <c r="E25" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="n">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="n">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="5">
         <v>24</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7" t="n">
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="5">
         <v>25</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7" t="n">
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="16">
         <v>2</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="n">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="16">
         <v>2</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7" t="n">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="19" t="n">
-        <f aca="false">SUM(E6:E32)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F34" s="18" t="n">
-        <f aca="false">SUM(F6:F32)</f>
+      <c r="E34" s="19">
+        <f>SUM(E6:E32)</f>
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="F34" s="18">
+        <f>SUM(F6:F32)</f>
         <v>236</v>
       </c>
       <c r="G34" s="18"/>
@@ -1397,16 +1357,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E32">
-    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>5</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="7">
         <v>6</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>8</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <v>9</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <v>11</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="14">
         <v>12</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <v>13</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <v>14</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <v>15</v>
@@ -1132,10 +1132,10 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1258,10 +1258,10 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1344,11 +1344,11 @@
       <c r="D34" s="18"/>
       <c r="E34" s="19">
         <f>SUM(E6:E32)</f>
-        <v>7.0000000000000018</v>
+        <v>9.5000000000000018</v>
       </c>
       <c r="F34" s="18">
         <f>SUM(F6:F32)</f>
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$E$6:$E$32</definedName>
+  </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -92,9 +95,6 @@
     <t>рекурсия</t>
   </si>
   <si>
-    <t>числа из файла</t>
-  </si>
-  <si>
     <t>путь в лабиринте</t>
   </si>
   <si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>оптимизация или кластеры</t>
+  </si>
+  <si>
+    <t>пары чис из файла</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +254,18 @@
         <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -294,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,11 +369,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7ECFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -438,6 +466,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFB7ECFF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -629,7 +660,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,8 +669,9 @@
     <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="3.28515625" style="1" customWidth="1"/>
     <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
@@ -686,7 +718,7 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F6" s="7">
         <v>8</v>
@@ -712,10 +744,10 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -742,7 +774,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="7">
         <v>8</v>
@@ -772,7 +804,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F9" s="7">
         <v>4</v>
@@ -802,11 +834,12 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G10" s="22"/>
       <c r="I10" s="9">
         <v>5</v>
       </c>
@@ -832,7 +865,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F11" s="7">
         <v>5</v>
@@ -862,11 +895,12 @@
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F12" s="7">
         <v>6</v>
       </c>
+      <c r="G12" s="22"/>
       <c r="I12" s="9">
         <v>7</v>
       </c>
@@ -952,7 +986,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <v>4</v>
@@ -982,11 +1016,13 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="11">
         <v>11</v>
       </c>
@@ -1012,11 +1048,12 @@
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
       </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="14">
         <v>12</v>
       </c>
@@ -1047,6 +1084,7 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
+      <c r="H18" s="21"/>
       <c r="I18" s="11">
         <v>13</v>
       </c>
@@ -1077,6 +1115,7 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="11">
         <v>14</v>
       </c>
@@ -1140,7 +1179,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5">
         <v>17</v>
@@ -1158,7 +1197,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>18</v>
@@ -1176,7 +1215,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>19</v>
@@ -1189,12 +1228,12 @@
         <v>0.9</v>
       </c>
       <c r="F24" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5">
         <v>20</v>
@@ -1204,15 +1243,15 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F25" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5">
         <v>21</v>
@@ -1222,7 +1261,7 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F26" s="7">
         <v>0</v>
@@ -1230,7 +1269,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>22</v>
@@ -1245,10 +1284,11 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
         <v>23</v>
@@ -1266,7 +1306,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>24</v>
@@ -1284,7 +1324,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>25</v>
@@ -1302,7 +1342,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>26</v>
@@ -1320,7 +1360,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>27</v>
@@ -1344,11 +1384,11 @@
       <c r="D34" s="18"/>
       <c r="E34" s="19">
         <f>SUM(E6:E32)</f>
-        <v>9.5000000000000018</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="F34" s="18">
         <f>SUM(F6:F32)</f>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -1357,8 +1397,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E32">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$E$6:$E$32</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -181,7 +181,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,12 +214,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
-        <bgColor rgb="FFE2F0D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59987182226020086"/>
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
@@ -232,20 +226,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39988402966399123"/>
-        <bgColor rgb="FFF8CBAD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -262,8 +244,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -309,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,35 +338,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,12 +739,12 @@
       <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <v>6</v>
@@ -829,17 +829,17 @@
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="7">
         <v>8</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="24"/>
       <c r="I10" s="9">
         <v>5</v>
       </c>
@@ -890,27 +890,27 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8">
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22">
         <v>0.7</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="20">
         <v>6</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="24"/>
       <c r="I12" s="9">
         <v>7</v>
       </c>
       <c r="J12" s="9">
         <v>43</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <v>21</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="12">
         <v>80</v>
       </c>
     </row>
@@ -937,10 +937,10 @@
       <c r="J13" s="11">
         <v>46</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>22</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>83</v>
       </c>
     </row>
@@ -967,10 +967,10 @@
       <c r="J14" s="11">
         <v>48</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>23</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>85</v>
       </c>
     </row>
@@ -997,10 +997,10 @@
       <c r="J15" s="11">
         <v>51</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>24</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>88</v>
       </c>
     </row>
@@ -1011,28 +1011,28 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8">
+      <c r="C16" s="20">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22">
         <v>0.7</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="20">
         <v>8</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="11">
         <v>11</v>
       </c>
       <c r="J16" s="11">
         <v>54</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="12">
         <v>25</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>90</v>
       </c>
     </row>
@@ -1043,27 +1043,27 @@
       <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7"/>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23"/>
       <c r="E17" s="8">
         <v>0.8</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="14">
+      <c r="H17" s="18"/>
+      <c r="I17" s="13">
         <v>12</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>56</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="12">
         <v>26</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>93</v>
       </c>
     </row>
@@ -1077,24 +1077,24 @@
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="8">
         <v>0</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="11">
         <v>13</v>
       </c>
       <c r="J18" s="11">
         <v>59</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>27</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>95</v>
       </c>
     </row>
@@ -1108,24 +1108,24 @@
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="8">
         <v>0</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="11">
         <v>14</v>
       </c>
       <c r="J19" s="11">
         <v>62</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>28</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>98</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="8">
         <v>0</v>
       </c>
@@ -1152,10 +1152,10 @@
       <c r="J20" s="11">
         <v>64</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>29</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>100</v>
       </c>
     </row>
@@ -1166,10 +1166,10 @@
       <c r="B21" s="5">
         <v>16</v>
       </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23"/>
       <c r="E21" s="8">
         <v>1</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="8">
         <v>0</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="8">
         <v>0.9</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="8">
         <v>0.9</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="8">
         <v>0.8</v>
       </c>
@@ -1256,14 +1256,14 @@
       <c r="B26" s="5">
         <v>21</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="22">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="20">
         <v>0</v>
       </c>
     </row>
@@ -1277,14 +1277,14 @@
       <c r="C27" s="6">
         <v>1</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="8">
         <v>0</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1293,10 +1293,10 @@
       <c r="B28" s="5">
         <v>23</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="8">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="8">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="8">
         <v>0</v>
       </c>
@@ -1347,10 +1347,10 @@
       <c r="B31" s="5">
         <v>26</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <v>2</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="8">
         <v>0</v>
       </c>
@@ -1365,10 +1365,10 @@
       <c r="B32" s="5">
         <v>27</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <v>2</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="8">
         <v>0</v>
       </c>
@@ -1377,23 +1377,23 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19">
+    <row r="34" spans="1:10" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16">
         <f>SUM(E6:E32)</f>
-        <v>14.000000000000002</v>
-      </c>
-      <c r="F34" s="18">
+        <v>14.100000000000001</v>
+      </c>
+      <c r="F34" s="15">
         <f>SUM(F6:F32)</f>
         <v>91</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:E32">

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
@@ -1384,7 +1384,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16">
         <f>SUM(E6:E32)</f>
-        <v>14.100000000000001</v>
+        <v>14.600000000000001</v>
       </c>
       <c r="F34" s="15">
         <f>SUM(F6:F32)</f>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -181,7 +181,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +260,12 @@
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -303,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,6 +379,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,14 +1283,14 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="8">
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="22">
         <v>0.5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="20">
         <v>0</v>
       </c>
       <c r="G27" s="24"/>

--- a/docs/scale-balls.xlsx
+++ b/docs/scale-balls.xlsx
@@ -257,13 +257,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,20 +369,20 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +669,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,7 @@
       <c r="F10" s="7">
         <v>8</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="23"/>
       <c r="I10" s="9">
         <v>5</v>
       </c>
@@ -899,17 +899,17 @@
       <c r="B12" s="5">
         <v>7</v>
       </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22">
-        <v>0.7</v>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21">
+        <v>0.9</v>
       </c>
       <c r="F12" s="20">
         <v>6</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
       <c r="I12" s="9">
         <v>7</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="8">
         <v>0</v>
       </c>
@@ -963,7 +963,7 @@
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="8">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="8">
         <v>1</v>
       </c>
@@ -1020,17 +1020,17 @@
       <c r="B16" s="5">
         <v>11</v>
       </c>
-      <c r="C16" s="20">
-        <v>1</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22">
-        <v>0.7</v>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21">
+        <v>0.9</v>
       </c>
       <c r="F16" s="20">
         <v>8</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="18"/>
       <c r="I16" s="11">
         <v>11</v>
@@ -1055,7 +1055,7 @@
       <c r="C17" s="19">
         <v>1</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="8">
         <v>0.8</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="8">
         <v>0</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="8">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="I19" s="11">
         <v>14</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="25">
         <v>62</v>
       </c>
       <c r="K19" s="12">
@@ -1148,7 +1148,7 @@
       <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="8">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="8">
         <v>1</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="8">
         <v>0</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="C23" s="6">
         <v>1</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="8">
         <v>0.9</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="8">
         <v>0.9</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="8">
         <v>0.8</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>0.7</v>
       </c>
       <c r="F26" s="20">
@@ -1283,17 +1283,17 @@
       <c r="B27" s="5">
         <v>22</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>1</v>
       </c>
       <c r="D27" s="20"/>
-      <c r="E27" s="22">
-        <v>0.5</v>
+      <c r="E27" s="21">
+        <v>0.7</v>
       </c>
       <c r="F27" s="20">
         <v>0</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1305,7 +1305,7 @@
       <c r="C28" s="19">
         <v>1</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="8">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
       <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="8">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="8">
         <v>0</v>
       </c>
@@ -1359,7 +1359,7 @@
       <c r="C31" s="14">
         <v>2</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="8">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="C32" s="14">
         <v>2</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="8">
         <v>0</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16">
         <f>SUM(E6:E32)</f>
-        <v>14.600000000000001</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="F34" s="15">
         <f>SUM(F6:F32)</f>
